--- a/scoutToKeep.xlsx
+++ b/scoutToKeep.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asr31\Documents\GitHub\pesmobile_bluestacks_pyautogui\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD38BC3B-6007-4C36-B38E-837EDEEE8A74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF770CBB-DF98-438D-B9B6-6E856F2901BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="0" windowWidth="28260" windowHeight="12810" xr2:uid="{3F40647C-F299-48FA-AD9D-E5AFB7B6DFD8}"/>
+    <workbookView xWindow="1080" yWindow="0" windowWidth="28260" windowHeight="12810" xr2:uid="{3F40647C-F299-48FA-AD9D-E5AFB7B6DFD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -145,7 +145,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,6 +173,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF9900"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -204,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -226,6 +232,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -543,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB4A250-315F-41D8-A803-BE509CE8E847}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F22"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,22 +741,22 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="9" t="s">
         <v>26</v>
       </c>
     </row>
